--- a/QA_reports/bug_reports/FR13_BUG_REPORT_JV.xlsx
+++ b/QA_reports/bug_reports/FR13_BUG_REPORT_JV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TechIN\5. Projektas\Ziemos_kodas_JV\Ziemos_kodas QA\Bug reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TechIN\5. Projektas\Ziemos_kodas_JV\Ziemos_kodas QA\Bug reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532EC99E-40B2-4228-9005-628D5994C615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B03082C-C977-4202-837C-BCB867045042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12696" yWindow="300" windowWidth="10212" windowHeight="12024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15525" yWindow="1725" windowWidth="18975" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ZK_Bug_Report" sheetId="1" r:id="rId1"/>
@@ -602,18 +602,18 @@
   </sheetPr>
   <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="59" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="97.5546875" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="21.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="97.5703125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -621,7 +621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -629,7 +629,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -637,7 +637,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -645,7 +645,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -653,13 +653,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -667,7 +667,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -675,7 +675,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -683,7 +683,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -691,7 +691,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
@@ -699,7 +699,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -707,7 +707,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -715,7 +715,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
@@ -723,7 +723,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
@@ -731,19 +731,21 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="4">
+        <v>45264</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="6"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>0</v>
       </c>
@@ -751,7 +753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
@@ -759,7 +761,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>4</v>
       </c>
@@ -767,7 +769,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>5</v>
       </c>
@@ -775,7 +777,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>6</v>
       </c>
@@ -783,13 +785,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>8</v>
       </c>
@@ -797,7 +799,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>9</v>
       </c>
@@ -805,7 +807,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>10</v>
       </c>
@@ -813,7 +815,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>11</v>
       </c>
@@ -821,7 +823,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>12</v>
       </c>
@@ -829,7 +831,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>13</v>
       </c>
@@ -837,7 +839,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>14</v>
       </c>
@@ -845,7 +847,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>15</v>
       </c>
@@ -853,7 +855,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>16</v>
       </c>
@@ -861,19 +863,21 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="3"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="4">
+        <v>45264</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B35" s="3"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>0</v>
       </c>
@@ -881,7 +885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>2</v>
       </c>
@@ -889,7 +893,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>4</v>
       </c>
@@ -897,7 +901,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>5</v>
       </c>
@@ -905,7 +909,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>6</v>
       </c>
@@ -913,13 +917,13 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B42" s="3"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>8</v>
       </c>
@@ -927,7 +931,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>9</v>
       </c>
@@ -935,7 +939,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>10</v>
       </c>
@@ -943,7 +947,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>11</v>
       </c>
@@ -951,7 +955,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>12</v>
       </c>
@@ -959,7 +963,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>13</v>
       </c>
@@ -967,7 +971,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>14</v>
       </c>
@@ -975,7 +979,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>15</v>
       </c>
@@ -983,7 +987,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>16</v>
       </c>
@@ -991,19 +995,21 @@
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B52" s="3"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B52" s="4">
+        <v>45264</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B53" s="3"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>0</v>
       </c>
@@ -1011,7 +1017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>2</v>
       </c>
@@ -1019,7 +1025,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>4</v>
       </c>
@@ -1027,7 +1033,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>5</v>
       </c>
@@ -1035,7 +1041,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>6</v>
       </c>
@@ -1043,13 +1049,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B60" s="3"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>8</v>
       </c>
@@ -1057,7 +1063,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>9</v>
       </c>
@@ -1065,7 +1071,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>10</v>
       </c>
@@ -1073,7 +1079,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>11</v>
       </c>
@@ -1081,7 +1087,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>12</v>
       </c>
@@ -1089,7 +1095,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>13</v>
       </c>
@@ -1097,7 +1103,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>14</v>
       </c>
@@ -1105,7 +1111,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>15</v>
       </c>
@@ -1113,7 +1119,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>16</v>
       </c>
@@ -1121,13 +1127,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B70" s="3"/>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B70" s="4">
+        <v>45264</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>18</v>
       </c>
@@ -1149,14 +1157,14 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="90" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.109375" style="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1164,7 +1172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1172,13 +1180,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="5"/>
     </row>
-    <row r="4" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1186,7 +1194,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -1194,7 +1202,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1202,7 +1210,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -1210,7 +1218,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -1218,7 +1226,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -1226,7 +1234,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -1234,7 +1242,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
@@ -1242,7 +1250,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -1250,7 +1258,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -1258,7 +1266,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
@@ -1266,7 +1274,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
@@ -1274,7 +1282,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
@@ -1282,7 +1290,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
